--- a/biology/Zoologie/Corythopis_à_collier/Corythopis_à_collier.xlsx
+++ b/biology/Zoologie/Corythopis_à_collier/Corythopis_à_collier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corythopis_%C3%A0_collier</t>
+          <t>Corythopis_à_collier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corythopis torquatus
-Le Corythopis à collier (Corythopis torquatus) est une espèce de passereau de la famille des Tyrannidae[1].
+Le Corythopis à collier (Corythopis torquatus) est une espèce de passereau de la famille des Tyrannidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corythopis_%C3%A0_collier</t>
+          <t>Corythopis_à_collier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ornithologue Johann Jakob von Tschudi, qui a décrit pour la première fois l'espèce, Corythopis torquatus se distingue de Corythopis delalandi par la longueur du bec, des ailes, des pieds et de la queue, malgré sa taille similaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ornithologue Johann Jakob von Tschudi, qui a décrit pour la première fois l'espèce, Corythopis torquatus se distingue de Corythopis delalandi par la longueur du bec, des ailes, des pieds et de la queue, malgré sa taille similaire.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corythopis_%C3%A0_collier</t>
+          <t>Corythopis_à_collier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par trois sous-espèces :
 Corythopis torquatus torquatus[Note 1]von Tschudi, 1844 : de l'est du Pérou au nord de la Bolivie et à l'ouest de l'Amazonie brésilienne ;
 Corythopis torquatus sarayacuensis Chubb, 1918 : du sud-est de la Colombie à l'est de l'Équateur et au nord-est du Pérou ;
-Corythopis torquatus anthoides (Pucheran, 1855) : du sud du Venezuela aux Guyanes et au nord de l'Amazonie brésilienne[1],[3].</t>
+Corythopis torquatus anthoides (Pucheran, 1855) : du sud du Venezuela aux Guyanes et au nord de l'Amazonie brésilienne,.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corythopis_%C3%A0_collier</t>
+          <t>Corythopis_à_collier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit dans les forêts humides de plaine et les forêts de varzea[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit dans les forêts humides de plaine et les forêts de varzea.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Corythopis_%C3%A0_collier</t>
+          <t>Corythopis_à_collier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se nourrit d'insectes[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se nourrit d'insectes.
 </t>
         </is>
       </c>
